--- a/WEO統計ページ/XLSXTable/履歴/NGDPDPC_1980.xlsx
+++ b/WEO統計ページ/XLSXTable/履歴/NGDPDPC_1980.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c144b2c14e6297/ドキュメント/GitHub/WorldData/WEO統計ページ/XLSXTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8228A0EB-75D3-477B-A662-00DC8447D4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB89B28-0AA0-4570-A8D1-3F3114A4D0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59385" yWindow="1800" windowWidth="24480" windowHeight="18225" xr2:uid="{05931CE9-6384-4A48-A6BB-918CC8FB897A}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="11032" windowHeight="9157" xr2:uid="{52AF6CAE-68A0-4586-A593-FA3396644DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="NGDPDPC_1980" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>Rank</t>
+  </si>
   <si>
     <t>Country</t>
   </si>
@@ -835,1123 +838,1540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBA783B-3712-4855-8228-6F1C4E4FCEA9}">
-  <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:B139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F0AD99-09B0-4A00-807F-1262F438E6E3}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>1980</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>41311.881000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>27242.483</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>19543.400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>19426.637999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>17666.822</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>16779.521000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>15746.262000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>15129.182000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>13824.64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>13769.867</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>13449.647999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>12943.546</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>12552.942999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>12529.348</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
         <v>12291.741</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>11281.422</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>11257.795</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>11150.445</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>11007.874</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>10734.896000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>10731.955</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>10622.619000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>9671.8610000000008</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>8511.7919999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>8361.2090000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>7258.0069999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
         <v>6396.5190000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
         <v>6254.0510000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>6135.6819999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>6093.6149999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
         <v>5948.3119999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
         <v>5847.7070000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
         <v>5703.9629999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
         <v>5357.7790000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
         <v>5004.9920000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>4671.0780000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
         <v>4549.59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
         <v>4507.1499999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
         <v>4286.2089999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
         <v>4157.5529999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
         <v>4155.9560000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
         <v>3557.3049999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
         <v>3489.4969999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
         <v>3338.7710000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
         <v>3074.6840000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
         <v>2730.694</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
         <v>2598.1590000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
         <v>2462.085</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
         <v>2439.3960000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
         <v>2366.797</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>2329.3530000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
         <v>2151.4679999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
         <v>2146.4699999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
         <v>2133.6849999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
         <v>2108.75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
         <v>2056.0729999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
         <v>2052.0810000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
         <v>2015.0820000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
         <v>1935.0219999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
         <v>1926.963</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
         <v>1776.5450000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
         <v>1773.8489999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
         <v>1764.741</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
         <v>1682.4269999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
         <v>1595.047</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
         <v>1534.317</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
         <v>1485.1890000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
         <v>1482.8230000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
         <v>1421.836</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
         <v>1380.8440000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
         <v>1373.087</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
         <v>1356.473</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
         <v>1342.1020000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
         <v>1329.789</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
         <v>1299.6610000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
         <v>1285.181</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
         <v>1268.3320000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
         <v>1245.6199999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
         <v>1229.883</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
         <v>1225.165</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
         <v>1219.569</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
         <v>1214.3789999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
         <v>1150.6859999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
         <v>1101.855</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
         <v>1095.557</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A87" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
         <v>1080.431</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
         <v>1055.3389999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
         <v>1053.8489999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
         <v>1007.7910000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
         <v>1004.846</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
         <v>903.44500000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93">
         <v>855.46</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
         <v>806.91499999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95">
         <v>793.11199999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
         <v>775.70899999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A97" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97">
         <v>774.48400000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98">
         <v>770.303</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A99" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99">
         <v>767.97199999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A100" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
         <v>764.91899999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
         <v>763.51400000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A102" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102">
         <v>728.35900000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A103" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103">
         <v>722.29200000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A104" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104">
         <v>706.78300000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A105" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
         <v>705.48400000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A106" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106">
         <v>695.53499999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A107" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107">
         <v>673.23900000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A108" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108">
         <v>664.57399999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A109" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109">
         <v>652.59299999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A110" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110">
         <v>614.04</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A111" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111">
         <v>609.43299999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A112" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112">
         <v>602.92399999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A113" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
         <v>599.37099999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A114" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114">
         <v>584.59400000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A115" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115">
         <v>580.04200000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A116" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116">
         <v>569.22299999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A117" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117">
         <v>567.51700000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A118" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118">
         <v>486.90800000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A119" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119">
         <v>479.06400000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A120" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120">
         <v>460.392</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A121" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121">
         <v>447.90699999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A122" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122">
         <v>412.50799999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A123" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
         <v>396.81599999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A124" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
         <v>370.185</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A125" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
         <v>338.66</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A126" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
         <v>334.43</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A127" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
         <v>333.91800000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A128" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128">
         <v>324.38600000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A129" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129">
         <v>321.76900000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A130" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130">
         <v>311.09300000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A131" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131">
         <v>306.98</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A132" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
         <v>292.78199999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A133" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
         <v>275.47899999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A134" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
         <v>267.16699999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A135" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
         <v>232.381</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A136" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
         <v>227.61600000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A137" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137">
         <v>222.85599999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A138" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
         <v>144.49199999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A139" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
         <v>123.40300000000001</v>
       </c>
     </row>
